--- a/app/data/mould_new/companyInfo.xlsx
+++ b/app/data/mould_new/companyInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglezpf/Mega/OMNILab/强生医疗/Project/round1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4C74BB-E322-3146-B3F4-4AC3ED6EE213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACDF03A-C840-A043-A058-2F1C9D36C700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17460" xr2:uid="{8C726EFA-240E-0A43-B05B-47861869E8A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{8C726EFA-240E-0A43-B05B-47861869E8A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341CDBF7-2020-8E4B-86F6-573F384B5F1B}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -606,7 +606,8 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>1000000</v>
+        <f>1000000+21*1000</f>
+        <v>1021000</v>
       </c>
       <c r="C2">
         <v>27</v>
@@ -639,10 +640,10 @@
         <v>0.15</v>
       </c>
       <c r="M2" s="1">
-        <v>90906</v>
+        <v>8682718.7999999989</v>
       </c>
       <c r="N2" s="1">
-        <v>90906</v>
+        <v>8682718.7999999989</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -674,7 +675,8 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>600000</v>
+        <f>600000+13000</f>
+        <v>613000</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -707,10 +709,10 @@
         <v>0.25</v>
       </c>
       <c r="M3" s="1">
-        <v>48774</v>
+        <v>4526784</v>
       </c>
       <c r="N3" s="1">
-        <v>48774</v>
+        <v>4526784</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -742,7 +744,8 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>650000</v>
+        <f>650000+11000</f>
+        <v>661000</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -757,7 +760,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -775,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>43881</v>
+        <v>4259083.8</v>
       </c>
       <c r="N4" s="1">
-        <v>43881</v>
+        <v>4259083.8</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -810,7 +813,8 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>500000</v>
+        <f>500000+6000</f>
+        <v>506000</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -825,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -843,10 +847,10 @@
         <v>0.1</v>
       </c>
       <c r="M5" s="1">
-        <v>28400</v>
+        <v>2281752</v>
       </c>
       <c r="N5" s="1">
-        <v>28400</v>
+        <v>2281752</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>

--- a/app/data/mould_new/companyInfo.xlsx
+++ b/app/data/mould_new/companyInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglezpf/Mega/OMNILab/强生医疗/Project/round1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACDF03A-C840-A043-A058-2F1C9D36C700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFCFF5-305D-D149-8944-185F47593D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{8C726EFA-240E-0A43-B05B-47861869E8A3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{8C726EFA-240E-0A43-B05B-47861869E8A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可分配人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>营收</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,18 @@
   </si>
   <si>
     <t>柳树威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已分配人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可新增人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,6 +151,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -188,7 +199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +207,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,28 +526,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341CDBF7-2020-8E4B-86F6-573F384B5F1B}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,339 +557,369 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <f>1000000+21*1000</f>
-        <v>1021000</v>
-      </c>
-      <c r="C2">
-        <v>27</v>
-      </c>
-      <c r="D2">
+      <c r="F2">
         <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>1500</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
       </c>
       <c r="G2">
         <v>1500</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>1500</v>
+      </c>
+      <c r="J2">
         <v>8</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2">
-        <v>15</v>
       </c>
       <c r="K2">
         <v>500</v>
       </c>
       <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>500</v>
+      </c>
+      <c r="N2">
         <v>0.15</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O2" s="1">
         <v>8682718.7999999989</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>8682718.7999999989</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>250</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>150</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>108</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <f>600000+13000</f>
-        <v>613000</v>
+        <f>600000</f>
+        <v>600000</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
         <v>800</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
       </c>
       <c r="G3">
         <v>1000</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>500</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>15</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>400</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.25</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>4526784</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>4526784</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>300</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>162</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>100</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <f>650000+11000</f>
-        <v>661000</v>
+        <f>650000</f>
+        <v>650000</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1000</v>
-      </c>
-      <c r="E4">
-        <v>1000</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
       </c>
       <c r="G4">
         <v>1000</v>
       </c>
       <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="J4">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>500</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>15</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>350</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>4259083.8</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>4259083.8</v>
       </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>150</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>80</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>50</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <f>500000+6000</f>
-        <v>506000</v>
+        <f>500000</f>
+        <v>500000</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>800</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>500</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>300</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.1</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>2281752</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>2281752</v>
       </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>150</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>80</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>50</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>0</v>
       </c>
     </row>

--- a/app/data/mould_new/companyInfo.xlsx
+++ b/app/data/mould_new/companyInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglezpf/Mega/OMNILab/强生医疗/Project/round1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglezpf/Mega/OMNILab/强生医疗/onlineTest/round1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFCFF5-305D-D149-8944-185F47593D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3488A193-BA65-8F4E-B824-8E6ECEB55F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{8C726EFA-240E-0A43-B05B-47861869E8A3}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -209,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341CDBF7-2020-8E4B-86F6-573F384B5F1B}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S5"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -668,10 +668,12 @@
         <v>0.15</v>
       </c>
       <c r="O2" s="1">
-        <v>8682718.7999999989</v>
+        <f>8682718.8/2</f>
+        <v>4341359.4000000004</v>
       </c>
       <c r="P2" s="1">
-        <v>8682718.7999999989</v>
+        <f>8682718.8/2</f>
+        <v>4341359.4000000004</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -743,10 +745,12 @@
         <v>0.25</v>
       </c>
       <c r="O3" s="1">
-        <v>4526784</v>
+        <f>4526784/2</f>
+        <v>2263392</v>
       </c>
       <c r="P3" s="1">
-        <v>4526784</v>
+        <f>4526784/2</f>
+        <v>2263392</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -818,10 +822,12 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>4259083.8</v>
+        <f>4259083.8/2</f>
+        <v>2129541.9</v>
       </c>
       <c r="P4" s="1">
-        <v>4259083.8</v>
+        <f>4259083.8/2</f>
+        <v>2129541.9</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -893,10 +899,12 @@
         <v>0.1</v>
       </c>
       <c r="O5" s="1">
-        <v>2281752</v>
+        <f>2281752/2</f>
+        <v>1140876</v>
       </c>
       <c r="P5" s="1">
-        <v>2281752</v>
+        <f>2281752/2</f>
+        <v>1140876</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
